--- a/public/excelReports/noticiaAdministrativa/nuevos/NOTICIA_ADMINISTRATIVA_EJEMPLO.xlsx
+++ b/public/excelReports/noticiaAdministrativa/nuevos/NOTICIA_ADMINISTRATIVA_EJEMPLO.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">duplicados!$A:$A</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Hoja 1'!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Hoja 1'!$A$1:$AC$1</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Hoja 4'!$C$1:$I$89</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="313">
   <si>
     <t xml:space="preserve">Tarea
 </t>
@@ -65,12 +65,6 @@
   </si>
   <si>
     <t xml:space="preserve">descripcion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripcion Opcional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titulo Agrupado</t>
   </si>
   <si>
     <t xml:space="preserve">concepto</t>
@@ -1390,10 +1384,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE1048576"/>
+  <dimension ref="A1:AC1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1407,10 +1401,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="73.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="55.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="150.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="37.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="94.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="75.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="150.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="37.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="94.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="75.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1449,24 +1444,20 @@
       <c r="M1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
@@ -1477,8 +1468,6 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
@@ -1486,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1497,7 +1486,7 @@
         <v>26</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>26</v>
@@ -1505,16 +1494,16 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="O2" s="3"/>
-      <c r="P2" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
@@ -1528,8 +1517,6 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
@@ -1560,8 +1547,6 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
@@ -1592,8 +1577,6 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
@@ -1624,8 +1607,6 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
@@ -1656,8 +1637,6 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
@@ -1688,8 +1667,6 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
@@ -1720,8 +1697,6 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
@@ -1752,8 +1727,6 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
@@ -1784,8 +1757,6 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
@@ -1816,8 +1787,6 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
@@ -1848,8 +1817,6 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
@@ -1880,8 +1847,6 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
@@ -1912,8 +1877,6 @@
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
@@ -1944,8 +1907,6 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
@@ -1976,8 +1937,6 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
@@ -2008,8 +1967,6 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
@@ -2040,8 +1997,6 @@
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
@@ -2072,8 +2027,6 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
@@ -2104,8 +2057,6 @@
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
@@ -2136,8 +2087,6 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
@@ -2168,8 +2117,6 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
@@ -2200,8 +2147,6 @@
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
@@ -2232,8 +2177,6 @@
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3"/>
@@ -2264,8 +2207,6 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3"/>
@@ -2296,8 +2237,6 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
@@ -2328,8 +2267,6 @@
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
@@ -2360,8 +2297,6 @@
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
@@ -2392,8 +2327,6 @@
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
@@ -2424,8 +2357,6 @@
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
@@ -2456,8 +2387,6 @@
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
@@ -2488,8 +2417,6 @@
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
@@ -2520,8 +2447,6 @@
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
@@ -2552,8 +2477,6 @@
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
@@ -2584,8 +2507,6 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
@@ -2616,8 +2537,6 @@
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
@@ -2648,8 +2567,6 @@
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
-      <c r="AD37" s="3"/>
-      <c r="AE37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
@@ -2680,8 +2597,6 @@
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
-      <c r="AD38" s="3"/>
-      <c r="AE38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
@@ -2712,8 +2627,6 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-      <c r="AD39" s="3"/>
-      <c r="AE39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3"/>
@@ -2744,8 +2657,6 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-      <c r="AD40" s="3"/>
-      <c r="AE40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3"/>
@@ -2776,8 +2687,6 @@
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
-      <c r="AD41" s="3"/>
-      <c r="AE41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3"/>
@@ -2808,8 +2717,6 @@
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
-      <c r="AD42" s="3"/>
-      <c r="AE42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3"/>
@@ -2840,8 +2747,6 @@
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AE43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3"/>
@@ -2872,8 +2777,6 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
-      <c r="AD44" s="3"/>
-      <c r="AE44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3"/>
@@ -2904,8 +2807,6 @@
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
-      <c r="AD45" s="3"/>
-      <c r="AE45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3"/>
@@ -2936,8 +2837,6 @@
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
-      <c r="AD46" s="3"/>
-      <c r="AE46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3"/>
@@ -2968,8 +2867,6 @@
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
       <c r="AC47" s="3"/>
-      <c r="AD47" s="3"/>
-      <c r="AE47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3"/>
@@ -3000,8 +2897,6 @@
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
-      <c r="AD48" s="3"/>
-      <c r="AE48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3"/>
@@ -3032,8 +2927,6 @@
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
-      <c r="AD49" s="3"/>
-      <c r="AE49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3"/>
@@ -3064,8 +2957,6 @@
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
-      <c r="AD50" s="3"/>
-      <c r="AE50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3"/>
@@ -3096,8 +2987,6 @@
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
-      <c r="AD51" s="3"/>
-      <c r="AE51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3"/>
@@ -3128,8 +3017,6 @@
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
-      <c r="AD52" s="3"/>
-      <c r="AE52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3"/>
@@ -3160,8 +3047,6 @@
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
       <c r="AC53" s="3"/>
-      <c r="AD53" s="3"/>
-      <c r="AE53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3"/>
@@ -3192,8 +3077,6 @@
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
       <c r="AC54" s="3"/>
-      <c r="AD54" s="3"/>
-      <c r="AE54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3"/>
@@ -3224,8 +3107,6 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-      <c r="AD55" s="3"/>
-      <c r="AE55" s="3"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3"/>
@@ -3256,8 +3137,6 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-      <c r="AD56" s="3"/>
-      <c r="AE56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3"/>
@@ -3288,8 +3167,6 @@
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
-      <c r="AD57" s="3"/>
-      <c r="AE57" s="3"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3"/>
@@ -3320,8 +3197,6 @@
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
-      <c r="AD58" s="3"/>
-      <c r="AE58" s="3"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3"/>
@@ -3352,8 +3227,6 @@
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
-      <c r="AD59" s="3"/>
-      <c r="AE59" s="3"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3"/>
@@ -3384,8 +3257,6 @@
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
-      <c r="AD60" s="3"/>
-      <c r="AE60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3"/>
@@ -3416,8 +3287,6 @@
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
-      <c r="AD61" s="3"/>
-      <c r="AE61" s="3"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3"/>
@@ -3448,8 +3317,6 @@
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
-      <c r="AD62" s="3"/>
-      <c r="AE62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3"/>
@@ -3480,8 +3347,6 @@
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
       <c r="AC63" s="3"/>
-      <c r="AD63" s="3"/>
-      <c r="AE63" s="3"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3"/>
@@ -3512,8 +3377,6 @@
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
-      <c r="AD64" s="3"/>
-      <c r="AE64" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3"/>
@@ -3544,8 +3407,6 @@
       <c r="AA65" s="3"/>
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
-      <c r="AD65" s="3"/>
-      <c r="AE65" s="3"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3"/>
@@ -3576,8 +3437,6 @@
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
-      <c r="AD66" s="3"/>
-      <c r="AE66" s="3"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>
@@ -3608,8 +3467,6 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-      <c r="AD67" s="3"/>
-      <c r="AE67" s="3"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3"/>
@@ -3640,8 +3497,6 @@
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
-      <c r="AD68" s="3"/>
-      <c r="AE68" s="3"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3"/>
@@ -3672,8 +3527,6 @@
       <c r="AA69" s="3"/>
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
-      <c r="AD69" s="3"/>
-      <c r="AE69" s="3"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3"/>
@@ -3704,8 +3557,6 @@
       <c r="AA70" s="3"/>
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
-      <c r="AD70" s="3"/>
-      <c r="AE70" s="3"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3"/>
@@ -3736,8 +3587,6 @@
       <c r="AA71" s="3"/>
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
-      <c r="AD71" s="3"/>
-      <c r="AE71" s="3"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3"/>
@@ -3768,8 +3617,6 @@
       <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
-      <c r="AD72" s="3"/>
-      <c r="AE72" s="3"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3"/>
@@ -3800,8 +3647,6 @@
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
-      <c r="AD73" s="3"/>
-      <c r="AE73" s="3"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3"/>
@@ -3832,8 +3677,6 @@
       <c r="AA74" s="3"/>
       <c r="AB74" s="3"/>
       <c r="AC74" s="3"/>
-      <c r="AD74" s="3"/>
-      <c r="AE74" s="3"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3"/>
@@ -3864,8 +3707,6 @@
       <c r="AA75" s="3"/>
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
-      <c r="AD75" s="3"/>
-      <c r="AE75" s="3"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3"/>
@@ -3896,8 +3737,6 @@
       <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
-      <c r="AD76" s="3"/>
-      <c r="AE76" s="3"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3"/>
@@ -3928,8 +3767,6 @@
       <c r="AA77" s="3"/>
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
-      <c r="AD77" s="3"/>
-      <c r="AE77" s="3"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3"/>
@@ -3960,8 +3797,6 @@
       <c r="AA78" s="3"/>
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
-      <c r="AD78" s="3"/>
-      <c r="AE78" s="3"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3"/>
@@ -3992,8 +3827,6 @@
       <c r="AA79" s="3"/>
       <c r="AB79" s="3"/>
       <c r="AC79" s="3"/>
-      <c r="AD79" s="3"/>
-      <c r="AE79" s="3"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3"/>
@@ -4024,8 +3857,6 @@
       <c r="AA80" s="3"/>
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
-      <c r="AD80" s="3"/>
-      <c r="AE80" s="3"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3"/>
@@ -4056,8 +3887,6 @@
       <c r="AA81" s="3"/>
       <c r="AB81" s="3"/>
       <c r="AC81" s="3"/>
-      <c r="AD81" s="3"/>
-      <c r="AE81" s="3"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3"/>
@@ -4088,8 +3917,6 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-      <c r="AD82" s="3"/>
-      <c r="AE82" s="3"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3"/>
@@ -4120,8 +3947,6 @@
       <c r="AA83" s="3"/>
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
-      <c r="AD83" s="3"/>
-      <c r="AE83" s="3"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3"/>
@@ -4152,8 +3977,6 @@
       <c r="AA84" s="3"/>
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
-      <c r="AD84" s="3"/>
-      <c r="AE84" s="3"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3"/>
@@ -4184,8 +4007,6 @@
       <c r="AA85" s="3"/>
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
-      <c r="AD85" s="3"/>
-      <c r="AE85" s="3"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3"/>
@@ -4216,8 +4037,6 @@
       <c r="AA86" s="3"/>
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
-      <c r="AD86" s="3"/>
-      <c r="AE86" s="3"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3"/>
@@ -4248,8 +4067,6 @@
       <c r="AA87" s="3"/>
       <c r="AB87" s="3"/>
       <c r="AC87" s="3"/>
-      <c r="AD87" s="3"/>
-      <c r="AE87" s="3"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3"/>
@@ -4280,8 +4097,6 @@
       <c r="AA88" s="3"/>
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
-      <c r="AD88" s="3"/>
-      <c r="AE88" s="3"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3"/>
@@ -4312,8 +4127,6 @@
       <c r="AA89" s="3"/>
       <c r="AB89" s="3"/>
       <c r="AC89" s="3"/>
-      <c r="AD89" s="3"/>
-      <c r="AE89" s="3"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3"/>
@@ -4344,8 +4157,6 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-      <c r="AD90" s="3"/>
-      <c r="AE90" s="3"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3"/>
@@ -4376,8 +4187,6 @@
       <c r="AA91" s="3"/>
       <c r="AB91" s="3"/>
       <c r="AC91" s="3"/>
-      <c r="AD91" s="3"/>
-      <c r="AE91" s="3"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3"/>
@@ -4408,8 +4217,6 @@
       <c r="AA92" s="3"/>
       <c r="AB92" s="3"/>
       <c r="AC92" s="3"/>
-      <c r="AD92" s="3"/>
-      <c r="AE92" s="3"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3"/>
@@ -4440,8 +4247,6 @@
       <c r="AA93" s="3"/>
       <c r="AB93" s="3"/>
       <c r="AC93" s="3"/>
-      <c r="AD93" s="3"/>
-      <c r="AE93" s="3"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3"/>
@@ -4472,8 +4277,6 @@
       <c r="AA94" s="3"/>
       <c r="AB94" s="3"/>
       <c r="AC94" s="3"/>
-      <c r="AD94" s="3"/>
-      <c r="AE94" s="3"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3"/>
@@ -4504,8 +4307,6 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-      <c r="AD95" s="3"/>
-      <c r="AE95" s="3"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3"/>
@@ -4536,8 +4337,6 @@
       <c r="AA96" s="3"/>
       <c r="AB96" s="3"/>
       <c r="AC96" s="3"/>
-      <c r="AD96" s="3"/>
-      <c r="AE96" s="3"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3"/>
@@ -4568,8 +4367,6 @@
       <c r="AA97" s="3"/>
       <c r="AB97" s="3"/>
       <c r="AC97" s="3"/>
-      <c r="AD97" s="3"/>
-      <c r="AE97" s="3"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3"/>
@@ -4600,8 +4397,6 @@
       <c r="AA98" s="3"/>
       <c r="AB98" s="3"/>
       <c r="AC98" s="3"/>
-      <c r="AD98" s="3"/>
-      <c r="AE98" s="3"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3"/>
@@ -4632,8 +4427,6 @@
       <c r="AA99" s="3"/>
       <c r="AB99" s="3"/>
       <c r="AC99" s="3"/>
-      <c r="AD99" s="3"/>
-      <c r="AE99" s="3"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3"/>
@@ -4664,8 +4457,6 @@
       <c r="AA100" s="3"/>
       <c r="AB100" s="3"/>
       <c r="AC100" s="3"/>
-      <c r="AD100" s="3"/>
-      <c r="AE100" s="3"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3"/>
@@ -4696,8 +4487,6 @@
       <c r="AA101" s="3"/>
       <c r="AB101" s="3"/>
       <c r="AC101" s="3"/>
-      <c r="AD101" s="3"/>
-      <c r="AE101" s="3"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3"/>
@@ -4728,8 +4517,6 @@
       <c r="AA102" s="3"/>
       <c r="AB102" s="3"/>
       <c r="AC102" s="3"/>
-      <c r="AD102" s="3"/>
-      <c r="AE102" s="3"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3"/>
@@ -4760,8 +4547,6 @@
       <c r="AA103" s="3"/>
       <c r="AB103" s="3"/>
       <c r="AC103" s="3"/>
-      <c r="AD103" s="3"/>
-      <c r="AE103" s="3"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3"/>
@@ -4792,8 +4577,6 @@
       <c r="AA104" s="3"/>
       <c r="AB104" s="3"/>
       <c r="AC104" s="3"/>
-      <c r="AD104" s="3"/>
-      <c r="AE104" s="3"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3"/>
@@ -4824,8 +4607,6 @@
       <c r="AA105" s="3"/>
       <c r="AB105" s="3"/>
       <c r="AC105" s="3"/>
-      <c r="AD105" s="3"/>
-      <c r="AE105" s="3"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3"/>
@@ -4856,8 +4637,6 @@
       <c r="AA106" s="3"/>
       <c r="AB106" s="3"/>
       <c r="AC106" s="3"/>
-      <c r="AD106" s="3"/>
-      <c r="AE106" s="3"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3"/>
@@ -4888,8 +4667,6 @@
       <c r="AA107" s="3"/>
       <c r="AB107" s="3"/>
       <c r="AC107" s="3"/>
-      <c r="AD107" s="3"/>
-      <c r="AE107" s="3"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3"/>
@@ -4920,8 +4697,6 @@
       <c r="AA108" s="3"/>
       <c r="AB108" s="3"/>
       <c r="AC108" s="3"/>
-      <c r="AD108" s="3"/>
-      <c r="AE108" s="3"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3"/>
@@ -4952,8 +4727,6 @@
       <c r="AA109" s="3"/>
       <c r="AB109" s="3"/>
       <c r="AC109" s="3"/>
-      <c r="AD109" s="3"/>
-      <c r="AE109" s="3"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3"/>
@@ -4984,8 +4757,6 @@
       <c r="AA110" s="3"/>
       <c r="AB110" s="3"/>
       <c r="AC110" s="3"/>
-      <c r="AD110" s="3"/>
-      <c r="AE110" s="3"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3"/>
@@ -5016,8 +4787,6 @@
       <c r="AA111" s="3"/>
       <c r="AB111" s="3"/>
       <c r="AC111" s="3"/>
-      <c r="AD111" s="3"/>
-      <c r="AE111" s="3"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3"/>
@@ -5048,8 +4817,6 @@
       <c r="AA112" s="3"/>
       <c r="AB112" s="3"/>
       <c r="AC112" s="3"/>
-      <c r="AD112" s="3"/>
-      <c r="AE112" s="3"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3"/>
@@ -5080,8 +4847,6 @@
       <c r="AA113" s="3"/>
       <c r="AB113" s="3"/>
       <c r="AC113" s="3"/>
-      <c r="AD113" s="3"/>
-      <c r="AE113" s="3"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3"/>
@@ -5112,8 +4877,6 @@
       <c r="AA114" s="3"/>
       <c r="AB114" s="3"/>
       <c r="AC114" s="3"/>
-      <c r="AD114" s="3"/>
-      <c r="AE114" s="3"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3"/>
@@ -5144,8 +4907,6 @@
       <c r="AA115" s="3"/>
       <c r="AB115" s="3"/>
       <c r="AC115" s="3"/>
-      <c r="AD115" s="3"/>
-      <c r="AE115" s="3"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3"/>
@@ -5176,8 +4937,6 @@
       <c r="AA116" s="3"/>
       <c r="AB116" s="3"/>
       <c r="AC116" s="3"/>
-      <c r="AD116" s="3"/>
-      <c r="AE116" s="3"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3"/>
@@ -5208,8 +4967,6 @@
       <c r="AA117" s="3"/>
       <c r="AB117" s="3"/>
       <c r="AC117" s="3"/>
-      <c r="AD117" s="3"/>
-      <c r="AE117" s="3"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3"/>
@@ -5240,8 +4997,6 @@
       <c r="AA118" s="3"/>
       <c r="AB118" s="3"/>
       <c r="AC118" s="3"/>
-      <c r="AD118" s="3"/>
-      <c r="AE118" s="3"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3"/>
@@ -5272,8 +5027,6 @@
       <c r="AA119" s="3"/>
       <c r="AB119" s="3"/>
       <c r="AC119" s="3"/>
-      <c r="AD119" s="3"/>
-      <c r="AE119" s="3"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3"/>
@@ -5304,8 +5057,6 @@
       <c r="AA120" s="3"/>
       <c r="AB120" s="3"/>
       <c r="AC120" s="3"/>
-      <c r="AD120" s="3"/>
-      <c r="AE120" s="3"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3"/>
@@ -5336,8 +5087,6 @@
       <c r="AA121" s="3"/>
       <c r="AB121" s="3"/>
       <c r="AC121" s="3"/>
-      <c r="AD121" s="3"/>
-      <c r="AE121" s="3"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3"/>
@@ -5368,8 +5117,6 @@
       <c r="AA122" s="3"/>
       <c r="AB122" s="3"/>
       <c r="AC122" s="3"/>
-      <c r="AD122" s="3"/>
-      <c r="AE122" s="3"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3"/>
@@ -5400,8 +5147,6 @@
       <c r="AA123" s="3"/>
       <c r="AB123" s="3"/>
       <c r="AC123" s="3"/>
-      <c r="AD123" s="3"/>
-      <c r="AE123" s="3"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3"/>
@@ -5432,8 +5177,6 @@
       <c r="AA124" s="3"/>
       <c r="AB124" s="3"/>
       <c r="AC124" s="3"/>
-      <c r="AD124" s="3"/>
-      <c r="AE124" s="3"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3"/>
@@ -5464,8 +5207,6 @@
       <c r="AA125" s="3"/>
       <c r="AB125" s="3"/>
       <c r="AC125" s="3"/>
-      <c r="AD125" s="3"/>
-      <c r="AE125" s="3"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3"/>
@@ -5496,8 +5237,6 @@
       <c r="AA126" s="3"/>
       <c r="AB126" s="3"/>
       <c r="AC126" s="3"/>
-      <c r="AD126" s="3"/>
-      <c r="AE126" s="3"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3"/>
@@ -5528,8 +5267,6 @@
       <c r="AA127" s="3"/>
       <c r="AB127" s="3"/>
       <c r="AC127" s="3"/>
-      <c r="AD127" s="3"/>
-      <c r="AE127" s="3"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3"/>
@@ -5560,8 +5297,6 @@
       <c r="AA128" s="3"/>
       <c r="AB128" s="3"/>
       <c r="AC128" s="3"/>
-      <c r="AD128" s="3"/>
-      <c r="AE128" s="3"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3"/>
@@ -5592,8 +5327,6 @@
       <c r="AA129" s="3"/>
       <c r="AB129" s="3"/>
       <c r="AC129" s="3"/>
-      <c r="AD129" s="3"/>
-      <c r="AE129" s="3"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3"/>
@@ -5624,8 +5357,6 @@
       <c r="AA130" s="3"/>
       <c r="AB130" s="3"/>
       <c r="AC130" s="3"/>
-      <c r="AD130" s="3"/>
-      <c r="AE130" s="3"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3"/>
@@ -5656,8 +5387,6 @@
       <c r="AA131" s="3"/>
       <c r="AB131" s="3"/>
       <c r="AC131" s="3"/>
-      <c r="AD131" s="3"/>
-      <c r="AE131" s="3"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3"/>
@@ -5688,8 +5417,6 @@
       <c r="AA132" s="3"/>
       <c r="AB132" s="3"/>
       <c r="AC132" s="3"/>
-      <c r="AD132" s="3"/>
-      <c r="AE132" s="3"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3"/>
@@ -5720,8 +5447,6 @@
       <c r="AA133" s="3"/>
       <c r="AB133" s="3"/>
       <c r="AC133" s="3"/>
-      <c r="AD133" s="3"/>
-      <c r="AE133" s="3"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3"/>
@@ -5752,8 +5477,6 @@
       <c r="AA134" s="3"/>
       <c r="AB134" s="3"/>
       <c r="AC134" s="3"/>
-      <c r="AD134" s="3"/>
-      <c r="AE134" s="3"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3"/>
@@ -5784,8 +5507,6 @@
       <c r="AA135" s="3"/>
       <c r="AB135" s="3"/>
       <c r="AC135" s="3"/>
-      <c r="AD135" s="3"/>
-      <c r="AE135" s="3"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3"/>
@@ -5816,8 +5537,6 @@
       <c r="AA136" s="3"/>
       <c r="AB136" s="3"/>
       <c r="AC136" s="3"/>
-      <c r="AD136" s="3"/>
-      <c r="AE136" s="3"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3"/>
@@ -5848,8 +5567,6 @@
       <c r="AA137" s="3"/>
       <c r="AB137" s="3"/>
       <c r="AC137" s="3"/>
-      <c r="AD137" s="3"/>
-      <c r="AE137" s="3"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3"/>
@@ -5880,8 +5597,6 @@
       <c r="AA138" s="3"/>
       <c r="AB138" s="3"/>
       <c r="AC138" s="3"/>
-      <c r="AD138" s="3"/>
-      <c r="AE138" s="3"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3"/>
@@ -5912,8 +5627,6 @@
       <c r="AA139" s="3"/>
       <c r="AB139" s="3"/>
       <c r="AC139" s="3"/>
-      <c r="AD139" s="3"/>
-      <c r="AE139" s="3"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3"/>
@@ -5944,8 +5657,6 @@
       <c r="AA140" s="3"/>
       <c r="AB140" s="3"/>
       <c r="AC140" s="3"/>
-      <c r="AD140" s="3"/>
-      <c r="AE140" s="3"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3"/>
@@ -5976,8 +5687,6 @@
       <c r="AA141" s="3"/>
       <c r="AB141" s="3"/>
       <c r="AC141" s="3"/>
-      <c r="AD141" s="3"/>
-      <c r="AE141" s="3"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3"/>
@@ -6008,8 +5717,6 @@
       <c r="AA142" s="3"/>
       <c r="AB142" s="3"/>
       <c r="AC142" s="3"/>
-      <c r="AD142" s="3"/>
-      <c r="AE142" s="3"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3"/>
@@ -6040,8 +5747,6 @@
       <c r="AA143" s="3"/>
       <c r="AB143" s="3"/>
       <c r="AC143" s="3"/>
-      <c r="AD143" s="3"/>
-      <c r="AE143" s="3"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3"/>
@@ -6072,8 +5777,6 @@
       <c r="AA144" s="3"/>
       <c r="AB144" s="3"/>
       <c r="AC144" s="3"/>
-      <c r="AD144" s="3"/>
-      <c r="AE144" s="3"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3"/>
@@ -6104,8 +5807,6 @@
       <c r="AA145" s="3"/>
       <c r="AB145" s="3"/>
       <c r="AC145" s="3"/>
-      <c r="AD145" s="3"/>
-      <c r="AE145" s="3"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3"/>
@@ -6136,8 +5837,6 @@
       <c r="AA146" s="3"/>
       <c r="AB146" s="3"/>
       <c r="AC146" s="3"/>
-      <c r="AD146" s="3"/>
-      <c r="AE146" s="3"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3"/>
@@ -6168,8 +5867,6 @@
       <c r="AA147" s="3"/>
       <c r="AB147" s="3"/>
       <c r="AC147" s="3"/>
-      <c r="AD147" s="3"/>
-      <c r="AE147" s="3"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3"/>
@@ -6200,8 +5897,6 @@
       <c r="AA148" s="3"/>
       <c r="AB148" s="3"/>
       <c r="AC148" s="3"/>
-      <c r="AD148" s="3"/>
-      <c r="AE148" s="3"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="3"/>
@@ -6232,8 +5927,6 @@
       <c r="AA149" s="3"/>
       <c r="AB149" s="3"/>
       <c r="AC149" s="3"/>
-      <c r="AD149" s="3"/>
-      <c r="AE149" s="3"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3"/>
@@ -6264,8 +5957,6 @@
       <c r="AA150" s="3"/>
       <c r="AB150" s="3"/>
       <c r="AC150" s="3"/>
-      <c r="AD150" s="3"/>
-      <c r="AE150" s="3"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="3"/>
@@ -6296,8 +5987,6 @@
       <c r="AA151" s="3"/>
       <c r="AB151" s="3"/>
       <c r="AC151" s="3"/>
-      <c r="AD151" s="3"/>
-      <c r="AE151" s="3"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3"/>
@@ -6328,8 +6017,6 @@
       <c r="AA152" s="3"/>
       <c r="AB152" s="3"/>
       <c r="AC152" s="3"/>
-      <c r="AD152" s="3"/>
-      <c r="AE152" s="3"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3"/>
@@ -6360,8 +6047,6 @@
       <c r="AA153" s="3"/>
       <c r="AB153" s="3"/>
       <c r="AC153" s="3"/>
-      <c r="AD153" s="3"/>
-      <c r="AE153" s="3"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3"/>
@@ -6392,8 +6077,6 @@
       <c r="AA154" s="3"/>
       <c r="AB154" s="3"/>
       <c r="AC154" s="3"/>
-      <c r="AD154" s="3"/>
-      <c r="AE154" s="3"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3"/>
@@ -6424,8 +6107,6 @@
       <c r="AA155" s="3"/>
       <c r="AB155" s="3"/>
       <c r="AC155" s="3"/>
-      <c r="AD155" s="3"/>
-      <c r="AE155" s="3"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3"/>
@@ -6456,8 +6137,6 @@
       <c r="AA156" s="3"/>
       <c r="AB156" s="3"/>
       <c r="AC156" s="3"/>
-      <c r="AD156" s="3"/>
-      <c r="AE156" s="3"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3"/>
@@ -6488,8 +6167,6 @@
       <c r="AA157" s="3"/>
       <c r="AB157" s="3"/>
       <c r="AC157" s="3"/>
-      <c r="AD157" s="3"/>
-      <c r="AE157" s="3"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3"/>
@@ -6520,8 +6197,6 @@
       <c r="AA158" s="3"/>
       <c r="AB158" s="3"/>
       <c r="AC158" s="3"/>
-      <c r="AD158" s="3"/>
-      <c r="AE158" s="3"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3"/>
@@ -6552,8 +6227,6 @@
       <c r="AA159" s="3"/>
       <c r="AB159" s="3"/>
       <c r="AC159" s="3"/>
-      <c r="AD159" s="3"/>
-      <c r="AE159" s="3"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3"/>
@@ -6584,8 +6257,6 @@
       <c r="AA160" s="3"/>
       <c r="AB160" s="3"/>
       <c r="AC160" s="3"/>
-      <c r="AD160" s="3"/>
-      <c r="AE160" s="3"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3"/>
@@ -6616,8 +6287,6 @@
       <c r="AA161" s="3"/>
       <c r="AB161" s="3"/>
       <c r="AC161" s="3"/>
-      <c r="AD161" s="3"/>
-      <c r="AE161" s="3"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3"/>
@@ -6648,8 +6317,6 @@
       <c r="AA162" s="3"/>
       <c r="AB162" s="3"/>
       <c r="AC162" s="3"/>
-      <c r="AD162" s="3"/>
-      <c r="AE162" s="3"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="3"/>
@@ -6680,8 +6347,6 @@
       <c r="AA163" s="3"/>
       <c r="AB163" s="3"/>
       <c r="AC163" s="3"/>
-      <c r="AD163" s="3"/>
-      <c r="AE163" s="3"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="3"/>
@@ -6712,8 +6377,6 @@
       <c r="AA164" s="3"/>
       <c r="AB164" s="3"/>
       <c r="AC164" s="3"/>
-      <c r="AD164" s="3"/>
-      <c r="AE164" s="3"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="3"/>
@@ -6744,8 +6407,6 @@
       <c r="AA165" s="3"/>
       <c r="AB165" s="3"/>
       <c r="AC165" s="3"/>
-      <c r="AD165" s="3"/>
-      <c r="AE165" s="3"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3"/>
@@ -6776,8 +6437,6 @@
       <c r="AA166" s="3"/>
       <c r="AB166" s="3"/>
       <c r="AC166" s="3"/>
-      <c r="AD166" s="3"/>
-      <c r="AE166" s="3"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3"/>
@@ -6808,8 +6467,6 @@
       <c r="AA167" s="3"/>
       <c r="AB167" s="3"/>
       <c r="AC167" s="3"/>
-      <c r="AD167" s="3"/>
-      <c r="AE167" s="3"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="3"/>
@@ -6840,8 +6497,6 @@
       <c r="AA168" s="3"/>
       <c r="AB168" s="3"/>
       <c r="AC168" s="3"/>
-      <c r="AD168" s="3"/>
-      <c r="AE168" s="3"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3"/>
@@ -6872,8 +6527,6 @@
       <c r="AA169" s="3"/>
       <c r="AB169" s="3"/>
       <c r="AC169" s="3"/>
-      <c r="AD169" s="3"/>
-      <c r="AE169" s="3"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3"/>
@@ -6904,8 +6557,6 @@
       <c r="AA170" s="3"/>
       <c r="AB170" s="3"/>
       <c r="AC170" s="3"/>
-      <c r="AD170" s="3"/>
-      <c r="AE170" s="3"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="3"/>
@@ -6936,8 +6587,6 @@
       <c r="AA171" s="3"/>
       <c r="AB171" s="3"/>
       <c r="AC171" s="3"/>
-      <c r="AD171" s="3"/>
-      <c r="AE171" s="3"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="3"/>
@@ -6968,8 +6617,6 @@
       <c r="AA172" s="3"/>
       <c r="AB172" s="3"/>
       <c r="AC172" s="3"/>
-      <c r="AD172" s="3"/>
-      <c r="AE172" s="3"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="3"/>
@@ -7000,8 +6647,6 @@
       <c r="AA173" s="3"/>
       <c r="AB173" s="3"/>
       <c r="AC173" s="3"/>
-      <c r="AD173" s="3"/>
-      <c r="AE173" s="3"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3"/>
@@ -7032,8 +6677,6 @@
       <c r="AA174" s="3"/>
       <c r="AB174" s="3"/>
       <c r="AC174" s="3"/>
-      <c r="AD174" s="3"/>
-      <c r="AE174" s="3"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="3"/>
@@ -7064,8 +6707,6 @@
       <c r="AA175" s="3"/>
       <c r="AB175" s="3"/>
       <c r="AC175" s="3"/>
-      <c r="AD175" s="3"/>
-      <c r="AE175" s="3"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3"/>
@@ -7096,8 +6737,6 @@
       <c r="AA176" s="3"/>
       <c r="AB176" s="3"/>
       <c r="AC176" s="3"/>
-      <c r="AD176" s="3"/>
-      <c r="AE176" s="3"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="3"/>
@@ -7128,8 +6767,6 @@
       <c r="AA177" s="3"/>
       <c r="AB177" s="3"/>
       <c r="AC177" s="3"/>
-      <c r="AD177" s="3"/>
-      <c r="AE177" s="3"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3"/>
@@ -7160,8 +6797,6 @@
       <c r="AA178" s="3"/>
       <c r="AB178" s="3"/>
       <c r="AC178" s="3"/>
-      <c r="AD178" s="3"/>
-      <c r="AE178" s="3"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="3"/>
@@ -7192,8 +6827,6 @@
       <c r="AA179" s="3"/>
       <c r="AB179" s="3"/>
       <c r="AC179" s="3"/>
-      <c r="AD179" s="3"/>
-      <c r="AE179" s="3"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3"/>
@@ -7224,8 +6857,6 @@
       <c r="AA180" s="3"/>
       <c r="AB180" s="3"/>
       <c r="AC180" s="3"/>
-      <c r="AD180" s="3"/>
-      <c r="AE180" s="3"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3"/>
@@ -7256,8 +6887,6 @@
       <c r="AA181" s="3"/>
       <c r="AB181" s="3"/>
       <c r="AC181" s="3"/>
-      <c r="AD181" s="3"/>
-      <c r="AE181" s="3"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3"/>
@@ -7288,8 +6917,6 @@
       <c r="AA182" s="3"/>
       <c r="AB182" s="3"/>
       <c r="AC182" s="3"/>
-      <c r="AD182" s="3"/>
-      <c r="AE182" s="3"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3"/>
@@ -7320,8 +6947,6 @@
       <c r="AA183" s="3"/>
       <c r="AB183" s="3"/>
       <c r="AC183" s="3"/>
-      <c r="AD183" s="3"/>
-      <c r="AE183" s="3"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3"/>
@@ -7352,8 +6977,6 @@
       <c r="AA184" s="3"/>
       <c r="AB184" s="3"/>
       <c r="AC184" s="3"/>
-      <c r="AD184" s="3"/>
-      <c r="AE184" s="3"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3"/>
@@ -7384,8 +7007,6 @@
       <c r="AA185" s="3"/>
       <c r="AB185" s="3"/>
       <c r="AC185" s="3"/>
-      <c r="AD185" s="3"/>
-      <c r="AE185" s="3"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="3"/>
@@ -7416,8 +7037,6 @@
       <c r="AA186" s="3"/>
       <c r="AB186" s="3"/>
       <c r="AC186" s="3"/>
-      <c r="AD186" s="3"/>
-      <c r="AE186" s="3"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="3"/>
@@ -7448,8 +7067,6 @@
       <c r="AA187" s="3"/>
       <c r="AB187" s="3"/>
       <c r="AC187" s="3"/>
-      <c r="AD187" s="3"/>
-      <c r="AE187" s="3"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="3"/>
@@ -7480,8 +7097,6 @@
       <c r="AA188" s="3"/>
       <c r="AB188" s="3"/>
       <c r="AC188" s="3"/>
-      <c r="AD188" s="3"/>
-      <c r="AE188" s="3"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3"/>
@@ -7512,8 +7127,6 @@
       <c r="AA189" s="3"/>
       <c r="AB189" s="3"/>
       <c r="AC189" s="3"/>
-      <c r="AD189" s="3"/>
-      <c r="AE189" s="3"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3"/>
@@ -7544,8 +7157,6 @@
       <c r="AA190" s="3"/>
       <c r="AB190" s="3"/>
       <c r="AC190" s="3"/>
-      <c r="AD190" s="3"/>
-      <c r="AE190" s="3"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="3"/>
@@ -7576,8 +7187,6 @@
       <c r="AA191" s="3"/>
       <c r="AB191" s="3"/>
       <c r="AC191" s="3"/>
-      <c r="AD191" s="3"/>
-      <c r="AE191" s="3"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3"/>
@@ -7608,8 +7217,6 @@
       <c r="AA192" s="3"/>
       <c r="AB192" s="3"/>
       <c r="AC192" s="3"/>
-      <c r="AD192" s="3"/>
-      <c r="AE192" s="3"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="3"/>
@@ -7640,8 +7247,6 @@
       <c r="AA193" s="3"/>
       <c r="AB193" s="3"/>
       <c r="AC193" s="3"/>
-      <c r="AD193" s="3"/>
-      <c r="AE193" s="3"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="3"/>
@@ -7672,8 +7277,6 @@
       <c r="AA194" s="3"/>
       <c r="AB194" s="3"/>
       <c r="AC194" s="3"/>
-      <c r="AD194" s="3"/>
-      <c r="AE194" s="3"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="3"/>
@@ -7704,8 +7307,6 @@
       <c r="AA195" s="3"/>
       <c r="AB195" s="3"/>
       <c r="AC195" s="3"/>
-      <c r="AD195" s="3"/>
-      <c r="AE195" s="3"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="3"/>
@@ -7736,8 +7337,6 @@
       <c r="AA196" s="3"/>
       <c r="AB196" s="3"/>
       <c r="AC196" s="3"/>
-      <c r="AD196" s="3"/>
-      <c r="AE196" s="3"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="3"/>
@@ -7768,8 +7367,6 @@
       <c r="AA197" s="3"/>
       <c r="AB197" s="3"/>
       <c r="AC197" s="3"/>
-      <c r="AD197" s="3"/>
-      <c r="AE197" s="3"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="3"/>
@@ -7800,8 +7397,6 @@
       <c r="AA198" s="3"/>
       <c r="AB198" s="3"/>
       <c r="AC198" s="3"/>
-      <c r="AD198" s="3"/>
-      <c r="AE198" s="3"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="3"/>
@@ -7832,8 +7427,6 @@
       <c r="AA199" s="3"/>
       <c r="AB199" s="3"/>
       <c r="AC199" s="3"/>
-      <c r="AD199" s="3"/>
-      <c r="AE199" s="3"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="3"/>
@@ -7864,8 +7457,6 @@
       <c r="AA200" s="3"/>
       <c r="AB200" s="3"/>
       <c r="AC200" s="3"/>
-      <c r="AD200" s="3"/>
-      <c r="AE200" s="3"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="3"/>
@@ -7896,8 +7487,6 @@
       <c r="AA201" s="3"/>
       <c r="AB201" s="3"/>
       <c r="AC201" s="3"/>
-      <c r="AD201" s="3"/>
-      <c r="AE201" s="3"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="3"/>
@@ -7928,8 +7517,6 @@
       <c r="AA202" s="3"/>
       <c r="AB202" s="3"/>
       <c r="AC202" s="3"/>
-      <c r="AD202" s="3"/>
-      <c r="AE202" s="3"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="3"/>
@@ -7960,8 +7547,6 @@
       <c r="AA203" s="3"/>
       <c r="AB203" s="3"/>
       <c r="AC203" s="3"/>
-      <c r="AD203" s="3"/>
-      <c r="AE203" s="3"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="3"/>
@@ -7992,8 +7577,6 @@
       <c r="AA204" s="3"/>
       <c r="AB204" s="3"/>
       <c r="AC204" s="3"/>
-      <c r="AD204" s="3"/>
-      <c r="AE204" s="3"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="3"/>
@@ -8024,8 +7607,6 @@
       <c r="AA205" s="3"/>
       <c r="AB205" s="3"/>
       <c r="AC205" s="3"/>
-      <c r="AD205" s="3"/>
-      <c r="AE205" s="3"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3"/>
@@ -8056,8 +7637,6 @@
       <c r="AA206" s="3"/>
       <c r="AB206" s="3"/>
       <c r="AC206" s="3"/>
-      <c r="AD206" s="3"/>
-      <c r="AE206" s="3"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="3"/>
@@ -8088,8 +7667,6 @@
       <c r="AA207" s="3"/>
       <c r="AB207" s="3"/>
       <c r="AC207" s="3"/>
-      <c r="AD207" s="3"/>
-      <c r="AE207" s="3"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="3"/>
@@ -8120,8 +7697,6 @@
       <c r="AA208" s="3"/>
       <c r="AB208" s="3"/>
       <c r="AC208" s="3"/>
-      <c r="AD208" s="3"/>
-      <c r="AE208" s="3"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="3"/>
@@ -8152,8 +7727,6 @@
       <c r="AA209" s="3"/>
       <c r="AB209" s="3"/>
       <c r="AC209" s="3"/>
-      <c r="AD209" s="3"/>
-      <c r="AE209" s="3"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="3"/>
@@ -8184,8 +7757,6 @@
       <c r="AA210" s="3"/>
       <c r="AB210" s="3"/>
       <c r="AC210" s="3"/>
-      <c r="AD210" s="3"/>
-      <c r="AE210" s="3"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="3"/>
@@ -8216,8 +7787,6 @@
       <c r="AA211" s="3"/>
       <c r="AB211" s="3"/>
       <c r="AC211" s="3"/>
-      <c r="AD211" s="3"/>
-      <c r="AE211" s="3"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="3"/>
@@ -8248,8 +7817,6 @@
       <c r="AA212" s="3"/>
       <c r="AB212" s="3"/>
       <c r="AC212" s="3"/>
-      <c r="AD212" s="3"/>
-      <c r="AE212" s="3"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="3"/>
@@ -8280,8 +7847,6 @@
       <c r="AA213" s="3"/>
       <c r="AB213" s="3"/>
       <c r="AC213" s="3"/>
-      <c r="AD213" s="3"/>
-      <c r="AE213" s="3"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="3"/>
@@ -8312,8 +7877,6 @@
       <c r="AA214" s="3"/>
       <c r="AB214" s="3"/>
       <c r="AC214" s="3"/>
-      <c r="AD214" s="3"/>
-      <c r="AE214" s="3"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="3"/>
@@ -8344,8 +7907,6 @@
       <c r="AA215" s="3"/>
       <c r="AB215" s="3"/>
       <c r="AC215" s="3"/>
-      <c r="AD215" s="3"/>
-      <c r="AE215" s="3"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="3"/>
@@ -8376,8 +7937,6 @@
       <c r="AA216" s="3"/>
       <c r="AB216" s="3"/>
       <c r="AC216" s="3"/>
-      <c r="AD216" s="3"/>
-      <c r="AE216" s="3"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="3"/>
@@ -8408,8 +7967,6 @@
       <c r="AA217" s="3"/>
       <c r="AB217" s="3"/>
       <c r="AC217" s="3"/>
-      <c r="AD217" s="3"/>
-      <c r="AE217" s="3"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="3"/>
@@ -8440,8 +7997,6 @@
       <c r="AA218" s="3"/>
       <c r="AB218" s="3"/>
       <c r="AC218" s="3"/>
-      <c r="AD218" s="3"/>
-      <c r="AE218" s="3"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="3"/>
@@ -8472,8 +8027,6 @@
       <c r="AA219" s="3"/>
       <c r="AB219" s="3"/>
       <c r="AC219" s="3"/>
-      <c r="AD219" s="3"/>
-      <c r="AE219" s="3"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="3"/>
@@ -8504,8 +8057,6 @@
       <c r="AA220" s="3"/>
       <c r="AB220" s="3"/>
       <c r="AC220" s="3"/>
-      <c r="AD220" s="3"/>
-      <c r="AE220" s="3"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="3"/>
@@ -8536,8 +8087,6 @@
       <c r="AA221" s="3"/>
       <c r="AB221" s="3"/>
       <c r="AC221" s="3"/>
-      <c r="AD221" s="3"/>
-      <c r="AE221" s="3"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="3"/>
@@ -8568,8 +8117,6 @@
       <c r="AA222" s="3"/>
       <c r="AB222" s="3"/>
       <c r="AC222" s="3"/>
-      <c r="AD222" s="3"/>
-      <c r="AE222" s="3"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="3"/>
@@ -8600,8 +8147,6 @@
       <c r="AA223" s="3"/>
       <c r="AB223" s="3"/>
       <c r="AC223" s="3"/>
-      <c r="AD223" s="3"/>
-      <c r="AE223" s="3"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="3"/>
@@ -8632,8 +8177,6 @@
       <c r="AA224" s="3"/>
       <c r="AB224" s="3"/>
       <c r="AC224" s="3"/>
-      <c r="AD224" s="3"/>
-      <c r="AE224" s="3"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="3"/>
@@ -8664,8 +8207,6 @@
       <c r="AA225" s="3"/>
       <c r="AB225" s="3"/>
       <c r="AC225" s="3"/>
-      <c r="AD225" s="3"/>
-      <c r="AE225" s="3"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="3"/>
@@ -8696,8 +8237,6 @@
       <c r="AA226" s="3"/>
       <c r="AB226" s="3"/>
       <c r="AC226" s="3"/>
-      <c r="AD226" s="3"/>
-      <c r="AE226" s="3"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="3"/>
@@ -8728,8 +8267,6 @@
       <c r="AA227" s="3"/>
       <c r="AB227" s="3"/>
       <c r="AC227" s="3"/>
-      <c r="AD227" s="3"/>
-      <c r="AE227" s="3"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="3"/>
@@ -8760,8 +8297,6 @@
       <c r="AA228" s="3"/>
       <c r="AB228" s="3"/>
       <c r="AC228" s="3"/>
-      <c r="AD228" s="3"/>
-      <c r="AE228" s="3"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="3"/>
@@ -8792,8 +8327,6 @@
       <c r="AA229" s="3"/>
       <c r="AB229" s="3"/>
       <c r="AC229" s="3"/>
-      <c r="AD229" s="3"/>
-      <c r="AE229" s="3"/>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="3"/>
@@ -8824,8 +8357,6 @@
       <c r="AA230" s="3"/>
       <c r="AB230" s="3"/>
       <c r="AC230" s="3"/>
-      <c r="AD230" s="3"/>
-      <c r="AE230" s="3"/>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="3"/>
@@ -8856,8 +8387,6 @@
       <c r="AA231" s="3"/>
       <c r="AB231" s="3"/>
       <c r="AC231" s="3"/>
-      <c r="AD231" s="3"/>
-      <c r="AE231" s="3"/>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="3"/>
@@ -8888,8 +8417,6 @@
       <c r="AA232" s="3"/>
       <c r="AB232" s="3"/>
       <c r="AC232" s="3"/>
-      <c r="AD232" s="3"/>
-      <c r="AE232" s="3"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="3"/>
@@ -8920,8 +8447,6 @@
       <c r="AA233" s="3"/>
       <c r="AB233" s="3"/>
       <c r="AC233" s="3"/>
-      <c r="AD233" s="3"/>
-      <c r="AE233" s="3"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="3"/>
@@ -8952,8 +8477,6 @@
       <c r="AA234" s="3"/>
       <c r="AB234" s="3"/>
       <c r="AC234" s="3"/>
-      <c r="AD234" s="3"/>
-      <c r="AE234" s="3"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="3"/>
@@ -8984,8 +8507,6 @@
       <c r="AA235" s="3"/>
       <c r="AB235" s="3"/>
       <c r="AC235" s="3"/>
-      <c r="AD235" s="3"/>
-      <c r="AE235" s="3"/>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="3"/>
@@ -9016,8 +8537,6 @@
       <c r="AA236" s="3"/>
       <c r="AB236" s="3"/>
       <c r="AC236" s="3"/>
-      <c r="AD236" s="3"/>
-      <c r="AE236" s="3"/>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="3"/>
@@ -9048,8 +8567,6 @@
       <c r="AA237" s="3"/>
       <c r="AB237" s="3"/>
       <c r="AC237" s="3"/>
-      <c r="AD237" s="3"/>
-      <c r="AE237" s="3"/>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="3"/>
@@ -9080,8 +8597,6 @@
       <c r="AA238" s="3"/>
       <c r="AB238" s="3"/>
       <c r="AC238" s="3"/>
-      <c r="AD238" s="3"/>
-      <c r="AE238" s="3"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="3"/>
@@ -9112,8 +8627,6 @@
       <c r="AA239" s="3"/>
       <c r="AB239" s="3"/>
       <c r="AC239" s="3"/>
-      <c r="AD239" s="3"/>
-      <c r="AE239" s="3"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="3"/>
@@ -9144,8 +8657,6 @@
       <c r="AA240" s="3"/>
       <c r="AB240" s="3"/>
       <c r="AC240" s="3"/>
-      <c r="AD240" s="3"/>
-      <c r="AE240" s="3"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="3"/>
@@ -9176,8 +8687,6 @@
       <c r="AA241" s="3"/>
       <c r="AB241" s="3"/>
       <c r="AC241" s="3"/>
-      <c r="AD241" s="3"/>
-      <c r="AE241" s="3"/>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="3"/>
@@ -9208,8 +8717,6 @@
       <c r="AA242" s="3"/>
       <c r="AB242" s="3"/>
       <c r="AC242" s="3"/>
-      <c r="AD242" s="3"/>
-      <c r="AE242" s="3"/>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="3"/>
@@ -9240,8 +8747,6 @@
       <c r="AA243" s="3"/>
       <c r="AB243" s="3"/>
       <c r="AC243" s="3"/>
-      <c r="AD243" s="3"/>
-      <c r="AE243" s="3"/>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="3"/>
@@ -9272,8 +8777,6 @@
       <c r="AA244" s="3"/>
       <c r="AB244" s="3"/>
       <c r="AC244" s="3"/>
-      <c r="AD244" s="3"/>
-      <c r="AE244" s="3"/>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="3"/>
@@ -9304,8 +8807,6 @@
       <c r="AA245" s="3"/>
       <c r="AB245" s="3"/>
       <c r="AC245" s="3"/>
-      <c r="AD245" s="3"/>
-      <c r="AE245" s="3"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="3"/>
@@ -9336,8 +8837,6 @@
       <c r="AA246" s="3"/>
       <c r="AB246" s="3"/>
       <c r="AC246" s="3"/>
-      <c r="AD246" s="3"/>
-      <c r="AE246" s="3"/>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="3"/>
@@ -9368,8 +8867,6 @@
       <c r="AA247" s="3"/>
       <c r="AB247" s="3"/>
       <c r="AC247" s="3"/>
-      <c r="AD247" s="3"/>
-      <c r="AE247" s="3"/>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="3"/>
@@ -9400,8 +8897,6 @@
       <c r="AA248" s="3"/>
       <c r="AB248" s="3"/>
       <c r="AC248" s="3"/>
-      <c r="AD248" s="3"/>
-      <c r="AE248" s="3"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="3"/>
@@ -9432,8 +8927,6 @@
       <c r="AA249" s="3"/>
       <c r="AB249" s="3"/>
       <c r="AC249" s="3"/>
-      <c r="AD249" s="3"/>
-      <c r="AE249" s="3"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="3"/>
@@ -9464,8 +8957,6 @@
       <c r="AA250" s="3"/>
       <c r="AB250" s="3"/>
       <c r="AC250" s="3"/>
-      <c r="AD250" s="3"/>
-      <c r="AE250" s="3"/>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="3"/>
@@ -9496,8 +8987,6 @@
       <c r="AA251" s="3"/>
       <c r="AB251" s="3"/>
       <c r="AC251" s="3"/>
-      <c r="AD251" s="3"/>
-      <c r="AE251" s="3"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="3"/>
@@ -9528,8 +9017,6 @@
       <c r="AA252" s="3"/>
       <c r="AB252" s="3"/>
       <c r="AC252" s="3"/>
-      <c r="AD252" s="3"/>
-      <c r="AE252" s="3"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="3"/>
@@ -9560,8 +9047,6 @@
       <c r="AA253" s="3"/>
       <c r="AB253" s="3"/>
       <c r="AC253" s="3"/>
-      <c r="AD253" s="3"/>
-      <c r="AE253" s="3"/>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="3"/>
@@ -9592,8 +9077,6 @@
       <c r="AA254" s="3"/>
       <c r="AB254" s="3"/>
       <c r="AC254" s="3"/>
-      <c r="AD254" s="3"/>
-      <c r="AE254" s="3"/>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="3"/>
@@ -9624,8 +9107,6 @@
       <c r="AA255" s="3"/>
       <c r="AB255" s="3"/>
       <c r="AC255" s="3"/>
-      <c r="AD255" s="3"/>
-      <c r="AE255" s="3"/>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="3"/>
@@ -9656,8 +9137,6 @@
       <c r="AA256" s="3"/>
       <c r="AB256" s="3"/>
       <c r="AC256" s="3"/>
-      <c r="AD256" s="3"/>
-      <c r="AE256" s="3"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="3"/>
@@ -9688,8 +9167,6 @@
       <c r="AA257" s="3"/>
       <c r="AB257" s="3"/>
       <c r="AC257" s="3"/>
-      <c r="AD257" s="3"/>
-      <c r="AE257" s="3"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="3"/>
@@ -9720,8 +9197,6 @@
       <c r="AA258" s="3"/>
       <c r="AB258" s="3"/>
       <c r="AC258" s="3"/>
-      <c r="AD258" s="3"/>
-      <c r="AE258" s="3"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="3"/>
@@ -9752,8 +9227,6 @@
       <c r="AA259" s="3"/>
       <c r="AB259" s="3"/>
       <c r="AC259" s="3"/>
-      <c r="AD259" s="3"/>
-      <c r="AE259" s="3"/>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="3"/>
@@ -9784,8 +9257,6 @@
       <c r="AA260" s="3"/>
       <c r="AB260" s="3"/>
       <c r="AC260" s="3"/>
-      <c r="AD260" s="3"/>
-      <c r="AE260" s="3"/>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="3"/>
@@ -9816,8 +9287,6 @@
       <c r="AA261" s="3"/>
       <c r="AB261" s="3"/>
       <c r="AC261" s="3"/>
-      <c r="AD261" s="3"/>
-      <c r="AE261" s="3"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="3"/>
@@ -9848,8 +9317,6 @@
       <c r="AA262" s="3"/>
       <c r="AB262" s="3"/>
       <c r="AC262" s="3"/>
-      <c r="AD262" s="3"/>
-      <c r="AE262" s="3"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="3"/>
@@ -9880,8 +9347,6 @@
       <c r="AA263" s="3"/>
       <c r="AB263" s="3"/>
       <c r="AC263" s="3"/>
-      <c r="AD263" s="3"/>
-      <c r="AE263" s="3"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="3"/>
@@ -9912,8 +9377,6 @@
       <c r="AA264" s="3"/>
       <c r="AB264" s="3"/>
       <c r="AC264" s="3"/>
-      <c r="AD264" s="3"/>
-      <c r="AE264" s="3"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="3"/>
@@ -9944,8 +9407,6 @@
       <c r="AA265" s="3"/>
       <c r="AB265" s="3"/>
       <c r="AC265" s="3"/>
-      <c r="AD265" s="3"/>
-      <c r="AE265" s="3"/>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="3"/>
@@ -9976,8 +9437,6 @@
       <c r="AA266" s="3"/>
       <c r="AB266" s="3"/>
       <c r="AC266" s="3"/>
-      <c r="AD266" s="3"/>
-      <c r="AE266" s="3"/>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="3"/>
@@ -10008,8 +9467,6 @@
       <c r="AA267" s="3"/>
       <c r="AB267" s="3"/>
       <c r="AC267" s="3"/>
-      <c r="AD267" s="3"/>
-      <c r="AE267" s="3"/>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="3"/>
@@ -10040,8 +9497,6 @@
       <c r="AA268" s="3"/>
       <c r="AB268" s="3"/>
       <c r="AC268" s="3"/>
-      <c r="AD268" s="3"/>
-      <c r="AE268" s="3"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="3"/>
@@ -10072,8 +9527,6 @@
       <c r="AA269" s="3"/>
       <c r="AB269" s="3"/>
       <c r="AC269" s="3"/>
-      <c r="AD269" s="3"/>
-      <c r="AE269" s="3"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="3"/>
@@ -10104,8 +9557,6 @@
       <c r="AA270" s="3"/>
       <c r="AB270" s="3"/>
       <c r="AC270" s="3"/>
-      <c r="AD270" s="3"/>
-      <c r="AE270" s="3"/>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="3"/>
@@ -10136,8 +9587,6 @@
       <c r="AA271" s="3"/>
       <c r="AB271" s="3"/>
       <c r="AC271" s="3"/>
-      <c r="AD271" s="3"/>
-      <c r="AE271" s="3"/>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="3"/>
@@ -10168,8 +9617,6 @@
       <c r="AA272" s="3"/>
       <c r="AB272" s="3"/>
       <c r="AC272" s="3"/>
-      <c r="AD272" s="3"/>
-      <c r="AE272" s="3"/>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="3"/>
@@ -10200,8 +9647,6 @@
       <c r="AA273" s="3"/>
       <c r="AB273" s="3"/>
       <c r="AC273" s="3"/>
-      <c r="AD273" s="3"/>
-      <c r="AE273" s="3"/>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="3"/>
@@ -10232,8 +9677,6 @@
       <c r="AA274" s="3"/>
       <c r="AB274" s="3"/>
       <c r="AC274" s="3"/>
-      <c r="AD274" s="3"/>
-      <c r="AE274" s="3"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="3"/>
@@ -10264,8 +9707,6 @@
       <c r="AA275" s="3"/>
       <c r="AB275" s="3"/>
       <c r="AC275" s="3"/>
-      <c r="AD275" s="3"/>
-      <c r="AE275" s="3"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="3"/>
@@ -10296,8 +9737,6 @@
       <c r="AA276" s="3"/>
       <c r="AB276" s="3"/>
       <c r="AC276" s="3"/>
-      <c r="AD276" s="3"/>
-      <c r="AE276" s="3"/>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="3"/>
@@ -10328,8 +9767,6 @@
       <c r="AA277" s="3"/>
       <c r="AB277" s="3"/>
       <c r="AC277" s="3"/>
-      <c r="AD277" s="3"/>
-      <c r="AE277" s="3"/>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="3"/>
@@ -10360,8 +9797,6 @@
       <c r="AA278" s="3"/>
       <c r="AB278" s="3"/>
       <c r="AC278" s="3"/>
-      <c r="AD278" s="3"/>
-      <c r="AE278" s="3"/>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="3"/>
@@ -10392,8 +9827,6 @@
       <c r="AA279" s="3"/>
       <c r="AB279" s="3"/>
       <c r="AC279" s="3"/>
-      <c r="AD279" s="3"/>
-      <c r="AE279" s="3"/>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="3"/>
@@ -10424,8 +9857,6 @@
       <c r="AA280" s="3"/>
       <c r="AB280" s="3"/>
       <c r="AC280" s="3"/>
-      <c r="AD280" s="3"/>
-      <c r="AE280" s="3"/>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="3"/>
@@ -10456,8 +9887,6 @@
       <c r="AA281" s="3"/>
       <c r="AB281" s="3"/>
       <c r="AC281" s="3"/>
-      <c r="AD281" s="3"/>
-      <c r="AE281" s="3"/>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="3"/>
@@ -10488,8 +9917,6 @@
       <c r="AA282" s="3"/>
       <c r="AB282" s="3"/>
       <c r="AC282" s="3"/>
-      <c r="AD282" s="3"/>
-      <c r="AE282" s="3"/>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="3"/>
@@ -10520,8 +9947,6 @@
       <c r="AA283" s="3"/>
       <c r="AB283" s="3"/>
       <c r="AC283" s="3"/>
-      <c r="AD283" s="3"/>
-      <c r="AE283" s="3"/>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="3"/>
@@ -10552,8 +9977,6 @@
       <c r="AA284" s="3"/>
       <c r="AB284" s="3"/>
       <c r="AC284" s="3"/>
-      <c r="AD284" s="3"/>
-      <c r="AE284" s="3"/>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="3"/>
@@ -10584,8 +10007,6 @@
       <c r="AA285" s="3"/>
       <c r="AB285" s="3"/>
       <c r="AC285" s="3"/>
-      <c r="AD285" s="3"/>
-      <c r="AE285" s="3"/>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="3"/>
@@ -10616,8 +10037,6 @@
       <c r="AA286" s="3"/>
       <c r="AB286" s="3"/>
       <c r="AC286" s="3"/>
-      <c r="AD286" s="3"/>
-      <c r="AE286" s="3"/>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="3"/>
@@ -10648,8 +10067,6 @@
       <c r="AA287" s="3"/>
       <c r="AB287" s="3"/>
       <c r="AC287" s="3"/>
-      <c r="AD287" s="3"/>
-      <c r="AE287" s="3"/>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="3"/>
@@ -10680,8 +10097,6 @@
       <c r="AA288" s="3"/>
       <c r="AB288" s="3"/>
       <c r="AC288" s="3"/>
-      <c r="AD288" s="3"/>
-      <c r="AE288" s="3"/>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="3"/>
@@ -10712,8 +10127,6 @@
       <c r="AA289" s="3"/>
       <c r="AB289" s="3"/>
       <c r="AC289" s="3"/>
-      <c r="AD289" s="3"/>
-      <c r="AE289" s="3"/>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="3"/>
@@ -10744,8 +10157,6 @@
       <c r="AA290" s="3"/>
       <c r="AB290" s="3"/>
       <c r="AC290" s="3"/>
-      <c r="AD290" s="3"/>
-      <c r="AE290" s="3"/>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="3"/>
@@ -10776,8 +10187,6 @@
       <c r="AA291" s="3"/>
       <c r="AB291" s="3"/>
       <c r="AC291" s="3"/>
-      <c r="AD291" s="3"/>
-      <c r="AE291" s="3"/>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="3"/>
@@ -10808,8 +10217,6 @@
       <c r="AA292" s="3"/>
       <c r="AB292" s="3"/>
       <c r="AC292" s="3"/>
-      <c r="AD292" s="3"/>
-      <c r="AE292" s="3"/>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="3"/>
@@ -10840,8 +10247,6 @@
       <c r="AA293" s="3"/>
       <c r="AB293" s="3"/>
       <c r="AC293" s="3"/>
-      <c r="AD293" s="3"/>
-      <c r="AE293" s="3"/>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="3"/>
@@ -10872,8 +10277,6 @@
       <c r="AA294" s="3"/>
       <c r="AB294" s="3"/>
       <c r="AC294" s="3"/>
-      <c r="AD294" s="3"/>
-      <c r="AE294" s="3"/>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="3"/>
@@ -10904,8 +10307,6 @@
       <c r="AA295" s="3"/>
       <c r="AB295" s="3"/>
       <c r="AC295" s="3"/>
-      <c r="AD295" s="3"/>
-      <c r="AE295" s="3"/>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="3"/>
@@ -10936,8 +10337,6 @@
       <c r="AA296" s="3"/>
       <c r="AB296" s="3"/>
       <c r="AC296" s="3"/>
-      <c r="AD296" s="3"/>
-      <c r="AE296" s="3"/>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="3"/>
@@ -10968,8 +10367,6 @@
       <c r="AA297" s="3"/>
       <c r="AB297" s="3"/>
       <c r="AC297" s="3"/>
-      <c r="AD297" s="3"/>
-      <c r="AE297" s="3"/>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="3"/>
@@ -11000,8 +10397,6 @@
       <c r="AA298" s="3"/>
       <c r="AB298" s="3"/>
       <c r="AC298" s="3"/>
-      <c r="AD298" s="3"/>
-      <c r="AE298" s="3"/>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="3"/>
@@ -11032,8 +10427,6 @@
       <c r="AA299" s="3"/>
       <c r="AB299" s="3"/>
       <c r="AC299" s="3"/>
-      <c r="AD299" s="3"/>
-      <c r="AE299" s="3"/>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="3"/>
@@ -11064,8 +10457,6 @@
       <c r="AA300" s="3"/>
       <c r="AB300" s="3"/>
       <c r="AC300" s="3"/>
-      <c r="AD300" s="3"/>
-      <c r="AE300" s="3"/>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="3"/>
@@ -11096,8 +10487,6 @@
       <c r="AA301" s="3"/>
       <c r="AB301" s="3"/>
       <c r="AC301" s="3"/>
-      <c r="AD301" s="3"/>
-      <c r="AE301" s="3"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="3"/>
@@ -11128,8 +10517,6 @@
       <c r="AA302" s="3"/>
       <c r="AB302" s="3"/>
       <c r="AC302" s="3"/>
-      <c r="AD302" s="3"/>
-      <c r="AE302" s="3"/>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="3"/>
@@ -11160,8 +10547,6 @@
       <c r="AA303" s="3"/>
       <c r="AB303" s="3"/>
       <c r="AC303" s="3"/>
-      <c r="AD303" s="3"/>
-      <c r="AE303" s="3"/>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="3"/>
@@ -11192,8 +10577,6 @@
       <c r="AA304" s="3"/>
       <c r="AB304" s="3"/>
       <c r="AC304" s="3"/>
-      <c r="AD304" s="3"/>
-      <c r="AE304" s="3"/>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="3"/>
@@ -11224,8 +10607,6 @@
       <c r="AA305" s="3"/>
       <c r="AB305" s="3"/>
       <c r="AC305" s="3"/>
-      <c r="AD305" s="3"/>
-      <c r="AE305" s="3"/>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="3"/>
@@ -11256,8 +10637,6 @@
       <c r="AA306" s="3"/>
       <c r="AB306" s="3"/>
       <c r="AC306" s="3"/>
-      <c r="AD306" s="3"/>
-      <c r="AE306" s="3"/>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="3"/>
@@ -11288,8 +10667,6 @@
       <c r="AA307" s="3"/>
       <c r="AB307" s="3"/>
       <c r="AC307" s="3"/>
-      <c r="AD307" s="3"/>
-      <c r="AE307" s="3"/>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="3"/>
@@ -11320,8 +10697,6 @@
       <c r="AA308" s="3"/>
       <c r="AB308" s="3"/>
       <c r="AC308" s="3"/>
-      <c r="AD308" s="3"/>
-      <c r="AE308" s="3"/>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="3"/>
@@ -11352,8 +10727,6 @@
       <c r="AA309" s="3"/>
       <c r="AB309" s="3"/>
       <c r="AC309" s="3"/>
-      <c r="AD309" s="3"/>
-      <c r="AE309" s="3"/>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="3"/>
@@ -11384,8 +10757,6 @@
       <c r="AA310" s="3"/>
       <c r="AB310" s="3"/>
       <c r="AC310" s="3"/>
-      <c r="AD310" s="3"/>
-      <c r="AE310" s="3"/>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="3"/>
@@ -11416,8 +10787,6 @@
       <c r="AA311" s="3"/>
       <c r="AB311" s="3"/>
       <c r="AC311" s="3"/>
-      <c r="AD311" s="3"/>
-      <c r="AE311" s="3"/>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="3"/>
@@ -11448,8 +10817,6 @@
       <c r="AA312" s="3"/>
       <c r="AB312" s="3"/>
       <c r="AC312" s="3"/>
-      <c r="AD312" s="3"/>
-      <c r="AE312" s="3"/>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="3"/>
@@ -11480,8 +10847,6 @@
       <c r="AA313" s="3"/>
       <c r="AB313" s="3"/>
       <c r="AC313" s="3"/>
-      <c r="AD313" s="3"/>
-      <c r="AE313" s="3"/>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="3"/>
@@ -11512,8 +10877,6 @@
       <c r="AA314" s="3"/>
       <c r="AB314" s="3"/>
       <c r="AC314" s="3"/>
-      <c r="AD314" s="3"/>
-      <c r="AE314" s="3"/>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="3"/>
@@ -11544,8 +10907,6 @@
       <c r="AA315" s="3"/>
       <c r="AB315" s="3"/>
       <c r="AC315" s="3"/>
-      <c r="AD315" s="3"/>
-      <c r="AE315" s="3"/>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="3"/>
@@ -11576,8 +10937,6 @@
       <c r="AA316" s="3"/>
       <c r="AB316" s="3"/>
       <c r="AC316" s="3"/>
-      <c r="AD316" s="3"/>
-      <c r="AE316" s="3"/>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="3"/>
@@ -11608,8 +10967,6 @@
       <c r="AA317" s="3"/>
       <c r="AB317" s="3"/>
       <c r="AC317" s="3"/>
-      <c r="AD317" s="3"/>
-      <c r="AE317" s="3"/>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="3"/>
@@ -11640,8 +10997,6 @@
       <c r="AA318" s="3"/>
       <c r="AB318" s="3"/>
       <c r="AC318" s="3"/>
-      <c r="AD318" s="3"/>
-      <c r="AE318" s="3"/>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="3"/>
@@ -11672,8 +11027,6 @@
       <c r="AA319" s="3"/>
       <c r="AB319" s="3"/>
       <c r="AC319" s="3"/>
-      <c r="AD319" s="3"/>
-      <c r="AE319" s="3"/>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="3"/>
@@ -11704,8 +11057,6 @@
       <c r="AA320" s="3"/>
       <c r="AB320" s="3"/>
       <c r="AC320" s="3"/>
-      <c r="AD320" s="3"/>
-      <c r="AE320" s="3"/>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="3"/>
@@ -11736,8 +11087,6 @@
       <c r="AA321" s="3"/>
       <c r="AB321" s="3"/>
       <c r="AC321" s="3"/>
-      <c r="AD321" s="3"/>
-      <c r="AE321" s="3"/>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="3"/>
@@ -11768,8 +11117,6 @@
       <c r="AA322" s="3"/>
       <c r="AB322" s="3"/>
       <c r="AC322" s="3"/>
-      <c r="AD322" s="3"/>
-      <c r="AE322" s="3"/>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="3"/>
@@ -11800,8 +11147,6 @@
       <c r="AA323" s="3"/>
       <c r="AB323" s="3"/>
       <c r="AC323" s="3"/>
-      <c r="AD323" s="3"/>
-      <c r="AE323" s="3"/>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="3"/>
@@ -11832,8 +11177,6 @@
       <c r="AA324" s="3"/>
       <c r="AB324" s="3"/>
       <c r="AC324" s="3"/>
-      <c r="AD324" s="3"/>
-      <c r="AE324" s="3"/>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="3"/>
@@ -11864,8 +11207,6 @@
       <c r="AA325" s="3"/>
       <c r="AB325" s="3"/>
       <c r="AC325" s="3"/>
-      <c r="AD325" s="3"/>
-      <c r="AE325" s="3"/>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="3"/>
@@ -11896,8 +11237,6 @@
       <c r="AA326" s="3"/>
       <c r="AB326" s="3"/>
       <c r="AC326" s="3"/>
-      <c r="AD326" s="3"/>
-      <c r="AE326" s="3"/>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="3"/>
@@ -11928,8 +11267,6 @@
       <c r="AA327" s="3"/>
       <c r="AB327" s="3"/>
       <c r="AC327" s="3"/>
-      <c r="AD327" s="3"/>
-      <c r="AE327" s="3"/>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="3"/>
@@ -11960,8 +11297,6 @@
       <c r="AA328" s="3"/>
       <c r="AB328" s="3"/>
       <c r="AC328" s="3"/>
-      <c r="AD328" s="3"/>
-      <c r="AE328" s="3"/>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="3"/>
@@ -11992,12 +11327,10 @@
       <c r="AA329" s="3"/>
       <c r="AB329" s="3"/>
       <c r="AC329" s="3"/>
-      <c r="AD329" s="3"/>
-      <c r="AE329" s="3"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AE1"/>
+  <autoFilter ref="A1:AC1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -12032,112 +11365,112 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -12172,12 +11505,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="str">
         <f aca="false">_xlfn.CONCAT("'", A2, "',")</f>
@@ -12186,7 +11519,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="str">
         <f aca="false">_xlfn.CONCAT("'", A3, "',")</f>
@@ -12195,7 +11528,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="str">
         <f aca="false">_xlfn.CONCAT("'", A4, "',")</f>
@@ -12204,7 +11537,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="str">
         <f aca="false">_xlfn.CONCAT("'", A5, "',")</f>
@@ -12213,7 +11546,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="str">
         <f aca="false">_xlfn.CONCAT("'", A6, "',")</f>
@@ -12222,7 +11555,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="str">
         <f aca="false">_xlfn.CONCAT("'", A7, "',")</f>
@@ -12231,7 +11564,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="str">
         <f aca="false">_xlfn.CONCAT("'", A8, "',")</f>
@@ -12240,7 +11573,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="str">
         <f aca="false">_xlfn.CONCAT("'", A9, "',")</f>
@@ -12249,7 +11582,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="str">
         <f aca="false">_xlfn.CONCAT("'", A10, "',")</f>
@@ -12258,7 +11591,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="str">
         <f aca="false">_xlfn.CONCAT("'", A11, "',")</f>
@@ -12267,7 +11600,7 @@
     </row>
     <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" s="14" t="str">
         <f aca="false">_xlfn.CONCAT("'", A12, "',")</f>
@@ -12276,7 +11609,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="str">
         <f aca="false">_xlfn.CONCAT("'", A13, "',")</f>
@@ -12285,7 +11618,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="str">
         <f aca="false">_xlfn.CONCAT("'", A14, "',")</f>
@@ -12294,7 +11627,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="str">
         <f aca="false">_xlfn.CONCAT("'", A15, "',")</f>
@@ -12303,7 +11636,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" s="1" t="str">
         <f aca="false">_xlfn.CONCAT("'", A16, "',")</f>
@@ -12312,7 +11645,7 @@
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" s="14" t="str">
         <f aca="false">_xlfn.CONCAT("'", A17, "',")</f>
@@ -12321,7 +11654,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1" t="str">
         <f aca="false">_xlfn.CONCAT("'", A18, "',")</f>
@@ -12330,7 +11663,7 @@
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" s="1" t="str">
         <f aca="false">_xlfn.CONCAT("'", A19, "',")</f>
@@ -12339,7 +11672,7 @@
     </row>
     <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20" s="14" t="str">
         <f aca="false">_xlfn.CONCAT("'", A20, "',")</f>
@@ -12349,7 +11682,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1" t="str">
         <f aca="false">_xlfn.CONCAT("'", A21, "',")</f>
@@ -12358,7 +11691,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1" t="str">
         <f aca="false">_xlfn.CONCAT("'", A22, "',")</f>
@@ -12367,7 +11700,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="str">
         <f aca="false">_xlfn.CONCAT("'", A23, "',")</f>
@@ -12376,7 +11709,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1" t="str">
         <f aca="false">_xlfn.CONCAT("'", A24, "',")</f>
@@ -12385,7 +11718,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="str">
         <f aca="false">_xlfn.CONCAT("'", A25, "',")</f>
@@ -12394,7 +11727,7 @@
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1" t="str">
         <f aca="false">_xlfn.CONCAT("'", A26, "',")</f>
@@ -12403,7 +11736,7 @@
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1" t="str">
         <f aca="false">_xlfn.CONCAT("'", A27, "',")</f>
@@ -12412,7 +11745,7 @@
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1" t="str">
         <f aca="false">_xlfn.CONCAT("'", A28, "',")</f>
@@ -12421,7 +11754,7 @@
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1" t="str">
         <f aca="false">_xlfn.CONCAT("'", A29, "',")</f>
@@ -12430,7 +11763,7 @@
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B30" s="1" t="str">
         <f aca="false">_xlfn.CONCAT("'", A30, "',")</f>
@@ -12439,7 +11772,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1" t="str">
         <f aca="false">_xlfn.CONCAT("'", A31, "',")</f>
@@ -12617,31 +11950,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>63</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -12669,16 +12002,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E2" s="18" t="n">
         <v>7</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G2" s="18" t="n">
         <v>58</v>
@@ -12687,7 +12020,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -12715,16 +12048,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E3" s="18" t="n">
         <v>2</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G3" s="18" t="n">
         <v>10</v>
@@ -12733,7 +12066,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -12761,16 +12094,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E4" s="18" t="n">
         <v>76</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G4" s="18" t="n">
         <v>492</v>
@@ -12779,7 +12112,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -12807,16 +12140,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E5" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G5" s="18" t="n">
         <v>7</v>
@@ -12825,7 +12158,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -12853,23 +12186,23 @@
         <v>5</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E6" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18" t="n">
         <v>5</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -12897,16 +12230,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E7" s="18" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G7" s="18" t="n">
         <v>33</v>
@@ -12915,7 +12248,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -12943,16 +12276,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E8" s="18" t="n">
         <v>479</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G8" s="20" t="n">
         <v>2994</v>
@@ -12961,7 +12294,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -12989,16 +12322,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E9" s="18" t="n">
         <v>208</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G9" s="20" t="n">
         <v>1182</v>
@@ -13007,7 +12340,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -13035,16 +12368,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E10" s="18" t="n">
         <v>8</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G10" s="18" t="n">
         <v>43</v>
@@ -13053,7 +12386,7 @@
         <v>5</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -13081,16 +12414,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E11" s="18" t="n">
         <v>87</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G11" s="18" t="n">
         <v>512</v>
@@ -13099,7 +12432,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -13127,16 +12460,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E12" s="18" t="n">
         <v>148</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G12" s="18" t="n">
         <v>675</v>
@@ -13145,7 +12478,7 @@
         <v>5</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -13173,16 +12506,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E13" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G13" s="18" t="n">
         <v>10</v>
@@ -13191,7 +12524,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -13219,16 +12552,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E14" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G14" s="18" t="n">
         <v>9</v>
@@ -13237,7 +12570,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -13265,16 +12598,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E15" s="18" t="n">
         <v>53</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G15" s="18" t="n">
         <v>418</v>
@@ -13283,7 +12616,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -13311,16 +12644,16 @@
         <v>15</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E16" s="18" t="n">
         <v>846</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G16" s="20" t="n">
         <v>5165</v>
@@ -13329,7 +12662,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -13357,10 +12690,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="17"/>
@@ -13393,16 +12726,16 @@
         <v>17</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E18" s="18" t="n">
         <v>340</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G18" s="20" t="n">
         <v>1651</v>
@@ -13411,7 +12744,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -13439,16 +12772,16 @@
         <v>18</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E19" s="18" t="n">
         <v>177</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G19" s="18" t="n">
         <v>922</v>
@@ -13457,7 +12790,7 @@
         <v>5</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -13485,16 +12818,16 @@
         <v>19</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E20" s="21" t="n">
         <v>1195822.16</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G20" s="21" t="n">
         <v>7038388.36</v>
@@ -13503,7 +12836,7 @@
         <v>5</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -13531,16 +12864,16 @@
         <v>20</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E21" s="18" t="n">
         <v>3</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G21" s="18" t="n">
         <v>46</v>
@@ -13549,7 +12882,7 @@
         <v>5</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -13577,16 +12910,16 @@
         <v>21</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E22" s="18" t="n">
         <v>82</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G22" s="18" t="n">
         <v>334</v>
@@ -13595,7 +12928,7 @@
         <v>5</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -13623,16 +12956,16 @@
         <v>22</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E23" s="18" t="n">
         <v>81</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G23" s="18" t="n">
         <v>395</v>
@@ -13641,7 +12974,7 @@
         <v>5</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -13669,16 +13002,16 @@
         <v>23</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E24" s="18" t="n">
         <v>9</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G24" s="18" t="n">
         <v>38</v>
@@ -13687,7 +13020,7 @@
         <v>5</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -13715,16 +13048,16 @@
         <v>24</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E25" s="18" t="n">
         <v>69</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G25" s="18" t="n">
         <v>626</v>
@@ -13733,7 +13066,7 @@
         <v>5</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -13761,10 +13094,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="17"/>
@@ -13797,16 +13130,16 @@
         <v>26</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E27" s="18" t="n">
         <v>59</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G27" s="18" t="n">
         <v>376</v>
@@ -13815,7 +13148,7 @@
         <v>5</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -13843,16 +13176,16 @@
         <v>27</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E28" s="18" t="n">
         <v>33</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G28" s="18" t="n">
         <v>170</v>
@@ -13861,7 +13194,7 @@
         <v>5</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -13889,16 +13222,16 @@
         <v>28</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E29" s="18" t="n">
         <v>4</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G29" s="18" t="n">
         <v>28</v>
@@ -13907,7 +13240,7 @@
         <v>5</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -13935,16 +13268,16 @@
         <v>29</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E30" s="18" t="n">
         <v>4</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G30" s="18" t="n">
         <v>10</v>
@@ -13953,7 +13286,7 @@
         <v>5</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -13981,16 +13314,16 @@
         <v>30</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E31" s="18" t="n">
         <v>2</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G31" s="18" t="n">
         <v>59</v>
@@ -13999,7 +13332,7 @@
         <v>5</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -14027,16 +13360,16 @@
         <v>31</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E32" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G32" s="18" t="n">
         <v>10</v>
@@ -14045,7 +13378,7 @@
         <v>5</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -14073,16 +13406,16 @@
         <v>32</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E33" s="18" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G33" s="18" t="n">
         <v>4</v>
@@ -14091,7 +13424,7 @@
         <v>5</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -14119,16 +13452,16 @@
         <v>33</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E34" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G34" s="18" t="n">
         <v>24</v>
@@ -14137,7 +13470,7 @@
         <v>5</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -14165,16 +13498,16 @@
         <v>34</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E35" s="18" t="n">
         <v>9</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G35" s="18" t="n">
         <v>35</v>
@@ -14183,7 +13516,7 @@
         <v>5</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -14211,16 +13544,16 @@
         <v>35</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E36" s="18" t="n">
         <v>5</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G36" s="18" t="n">
         <v>37</v>
@@ -14229,7 +13562,7 @@
         <v>5</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -14257,16 +13590,16 @@
         <v>36</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E37" s="18" t="n">
         <v>0</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G37" s="18" t="n">
         <v>0</v>
@@ -14275,7 +13608,7 @@
         <v>5</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -14303,10 +13636,10 @@
         <v>37</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="17"/>
@@ -14339,16 +13672,16 @@
         <v>38</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E39" s="18" t="n">
         <v>16</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G39" s="18" t="n">
         <v>92</v>
@@ -14357,7 +13690,7 @@
         <v>5</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -14385,16 +13718,16 @@
         <v>39</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E40" s="18" t="n">
         <v>16</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G40" s="18" t="n">
         <v>92</v>
@@ -14403,7 +13736,7 @@
         <v>5</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -14431,16 +13764,16 @@
         <v>40</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E41" s="21" t="n">
         <v>0</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G41" s="21" t="n">
         <v>44852.07</v>
@@ -14449,7 +13782,7 @@
         <v>5</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -14477,16 +13810,16 @@
         <v>41</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E42" s="21" t="n">
         <v>603218.94</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G42" s="21" t="n">
         <v>4488761.01</v>
@@ -14495,7 +13828,7 @@
         <v>5</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -14523,16 +13856,16 @@
         <v>42</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E43" s="18" t="n">
         <v>3</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G43" s="18" t="n">
         <v>3</v>
@@ -14541,7 +13874,7 @@
         <v>5</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -14569,16 +13902,16 @@
         <v>43</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E44" s="18" t="n">
         <v>12</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G44" s="18" t="n">
         <v>86</v>
@@ -14587,7 +13920,7 @@
         <v>5</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -14615,16 +13948,16 @@
         <v>44</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E45" s="18" t="n">
         <v>0</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G45" s="18" t="n">
         <v>5</v>
@@ -14633,7 +13966,7 @@
         <v>5</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -14661,16 +13994,16 @@
         <v>45</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E46" s="18" t="n">
         <v>12</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G46" s="18" t="n">
         <v>64</v>
@@ -14679,7 +14012,7 @@
         <v>5</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -14707,16 +14040,16 @@
         <v>46</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E47" s="18" t="n">
         <v>19</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G47" s="18" t="n">
         <v>86</v>
@@ -14725,7 +14058,7 @@
         <v>5</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -14753,16 +14086,16 @@
         <v>47</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E48" s="18" t="n">
         <v>377</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G48" s="20" t="n">
         <v>4181</v>
@@ -14771,7 +14104,7 @@
         <v>5</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -14799,16 +14132,16 @@
         <v>48</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E49" s="18" t="n">
         <v>22</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G49" s="18" t="n">
         <v>608</v>
@@ -14817,7 +14150,7 @@
         <v>5</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -14845,16 +14178,16 @@
         <v>49</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E50" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G50" s="18" t="n">
         <v>16</v>
@@ -14863,7 +14196,7 @@
         <v>5</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -14891,16 +14224,16 @@
         <v>50</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E51" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G51" s="18" t="n">
         <v>17</v>
@@ -14909,7 +14242,7 @@
         <v>5</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -14937,16 +14270,16 @@
         <v>51</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E52" s="18" t="n">
         <v>4</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G52" s="18" t="n">
         <v>36</v>
@@ -14955,7 +14288,7 @@
         <v>5</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -14983,16 +14316,16 @@
         <v>52</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E53" s="18" t="n">
         <v>104</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G53" s="18" t="n">
         <v>737</v>
@@ -15001,7 +14334,7 @@
         <v>5</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -15029,16 +14362,16 @@
         <v>53</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E54" s="18" t="n">
         <v>275</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G54" s="18" t="n">
         <v>761</v>
@@ -15047,7 +14380,7 @@
         <v>5</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -15075,16 +14408,16 @@
         <v>54</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E55" s="22" t="n">
         <v>101</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G55" s="22" t="n">
         <v>744</v>
@@ -15093,7 +14426,7 @@
         <v>5</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -15121,16 +14454,16 @@
         <v>55</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E56" s="22" t="n">
         <v>414</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G56" s="23" t="n">
         <v>2724</v>
@@ -15139,7 +14472,7 @@
         <v>5</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -15167,16 +14500,16 @@
         <v>56</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E57" s="23" t="n">
         <v>3244</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G57" s="23" t="n">
         <v>14284</v>
@@ -15185,7 +14518,7 @@
         <v>5</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -15213,16 +14546,16 @@
         <v>57</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E58" s="23" t="n">
         <v>3160</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G58" s="23" t="n">
         <v>20707</v>
@@ -15231,7 +14564,7 @@
         <v>5</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
@@ -15259,16 +14592,16 @@
         <v>58</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E59" s="24" t="n">
         <v>88859.56</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G59" s="24" t="n">
         <v>508974.06</v>
@@ -15277,7 +14610,7 @@
         <v>5</v>
       </c>
       <c r="I59" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -15305,16 +14638,16 @@
         <v>59</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E60" s="23" t="n">
         <v>4964</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G60" s="23" t="n">
         <v>38256</v>
@@ -15323,7 +14656,7 @@
         <v>5</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
@@ -15351,16 +14684,16 @@
         <v>60</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E61" s="22" t="n">
         <v>795</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G61" s="23" t="n">
         <v>6880</v>
@@ -15369,7 +14702,7 @@
         <v>5</v>
       </c>
       <c r="I61" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
@@ -15397,16 +14730,16 @@
         <v>61</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E62" s="22" t="n">
         <v>12</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G62" s="22" t="n">
         <v>89</v>
@@ -15415,7 +14748,7 @@
         <v>5</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -15443,16 +14776,16 @@
         <v>62</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E63" s="23" t="n">
         <v>2412</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G63" s="23" t="n">
         <v>15667</v>
@@ -15461,7 +14794,7 @@
         <v>5</v>
       </c>
       <c r="I63" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -15489,16 +14822,16 @@
         <v>63</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E64" s="23" t="n">
         <v>1995</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G64" s="23" t="n">
         <v>14657</v>
@@ -15507,7 +14840,7 @@
         <v>5</v>
       </c>
       <c r="I64" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -15535,16 +14868,16 @@
         <v>64</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E65" s="23" t="n">
         <v>1166</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G65" s="23" t="n">
         <v>8603</v>
@@ -15553,7 +14886,7 @@
         <v>5</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
@@ -15581,16 +14914,16 @@
         <v>65</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E66" s="22" t="n">
         <v>37</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G66" s="22" t="n">
         <v>167</v>
@@ -15599,7 +14932,7 @@
         <v>5</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
@@ -15627,16 +14960,16 @@
         <v>66</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E67" s="22" t="n">
         <v>181</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G67" s="23" t="n">
         <v>2574</v>
@@ -15645,7 +14978,7 @@
         <v>5</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
@@ -15673,16 +15006,16 @@
         <v>67</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E68" s="22" t="n">
         <v>56</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G68" s="22" t="n">
         <v>403</v>
@@ -15691,7 +15024,7 @@
         <v>5</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
@@ -15719,16 +15052,16 @@
         <v>68</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E69" s="22" t="n">
         <v>34</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G69" s="22" t="n">
         <v>245</v>
@@ -15737,7 +15070,7 @@
         <v>5</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
@@ -15765,16 +15098,16 @@
         <v>69</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E70" s="22" t="n">
         <v>11</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G70" s="22" t="n">
         <v>253</v>
@@ -15783,7 +15116,7 @@
         <v>5</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
@@ -15811,16 +15144,16 @@
         <v>70</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E71" s="22" t="n">
         <v>14</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G71" s="22" t="n">
         <v>64</v>
@@ -15829,7 +15162,7 @@
         <v>5</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
@@ -15857,16 +15190,16 @@
         <v>71</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E72" s="22" t="n">
         <v>5</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G72" s="22" t="n">
         <v>46</v>
@@ -15875,7 +15208,7 @@
         <v>5</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
@@ -15903,16 +15236,16 @@
         <v>72</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E73" s="22" t="n">
         <v>380</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G73" s="23" t="n">
         <v>1471</v>
@@ -15921,7 +15254,7 @@
         <v>5</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
@@ -15949,16 +15282,16 @@
         <v>73</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E74" s="22" t="n">
         <v>63</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G74" s="23" t="n">
         <v>1319</v>
@@ -15967,7 +15300,7 @@
         <v>5</v>
       </c>
       <c r="I74" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
@@ -15995,16 +15328,16 @@
         <v>74</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E75" s="22" t="n">
         <v>57</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G75" s="22" t="n">
         <v>407</v>
@@ -16013,7 +15346,7 @@
         <v>5</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
@@ -16041,16 +15374,16 @@
         <v>75</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E76" s="23" t="n">
         <v>3118</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G76" s="23" t="n">
         <v>22347</v>
@@ -16059,7 +15392,7 @@
         <v>5</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
@@ -16087,16 +15420,16 @@
         <v>76</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E77" s="23" t="n">
         <v>1333</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G77" s="23" t="n">
         <v>9213</v>
@@ -16105,7 +15438,7 @@
         <v>5</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -16133,16 +15466,16 @@
         <v>77</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E78" s="18" t="n">
         <v>18</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G78" s="18" t="n">
         <v>143</v>
@@ -16151,7 +15484,7 @@
         <v>5</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
@@ -16179,16 +15512,16 @@
         <v>78</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E79" s="18" t="n">
         <v>7</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G79" s="18" t="n">
         <v>49</v>
@@ -16197,7 +15530,7 @@
         <v>5</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
@@ -16225,16 +15558,16 @@
         <v>79</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E80" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G80" s="18" t="n">
         <v>7</v>
@@ -16243,7 +15576,7 @@
         <v>5</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
@@ -16271,16 +15604,16 @@
         <v>80</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E81" s="18" t="n">
         <v>88</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G81" s="18" t="n">
         <v>516</v>
@@ -16289,7 +15622,7 @@
         <v>5</v>
       </c>
       <c r="I81" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
@@ -16317,16 +15650,16 @@
         <v>81</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E82" s="20" t="n">
         <v>1054</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G82" s="20" t="n">
         <v>8256</v>
@@ -16335,7 +15668,7 @@
         <v>5</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
@@ -16363,16 +15696,16 @@
         <v>82</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E83" s="18" t="n">
         <v>11</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G83" s="18" t="n">
         <v>98</v>
@@ -16381,7 +15714,7 @@
         <v>5</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
@@ -16409,16 +15742,16 @@
         <v>83</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E84" s="18" t="n">
         <v>62</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G84" s="18" t="n">
         <v>292</v>
@@ -16427,7 +15760,7 @@
         <v>5</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -16455,16 +15788,16 @@
         <v>84</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E85" s="18" t="n">
         <v>150</v>
       </c>
       <c r="F85" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G85" s="18" t="n">
         <v>924</v>
@@ -16473,7 +15806,7 @@
         <v>5</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -16501,16 +15834,16 @@
         <v>85</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E86" s="18" t="n">
         <v>254</v>
       </c>
       <c r="F86" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G86" s="20" t="n">
         <v>2584</v>
@@ -16519,7 +15852,7 @@
         <v>5</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
@@ -16547,16 +15880,16 @@
         <v>86</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E87" s="18" t="n">
         <v>736</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G87" s="20" t="n">
         <v>5396</v>
@@ -16565,7 +15898,7 @@
         <v>5</v>
       </c>
       <c r="I87" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
@@ -16593,16 +15926,16 @@
         <v>87</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E88" s="18" t="n">
         <v>47</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G88" s="18" t="n">
         <v>576</v>
@@ -16611,7 +15944,7 @@
         <v>5</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
@@ -16639,16 +15972,16 @@
         <v>88</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E89" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G89" s="18" t="n">
         <v>3</v>
@@ -16657,7 +15990,7 @@
         <v>5</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
@@ -43623,7 +42956,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43631,7 +42964,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43639,7 +42972,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43647,7 +42980,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43655,7 +42988,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43663,7 +42996,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43671,7 +43004,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43679,7 +43012,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43687,7 +43020,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43695,7 +43028,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43703,7 +43036,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43711,7 +43044,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43719,7 +43052,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43727,7 +43060,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43735,7 +43068,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43743,7 +43076,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43751,7 +43084,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43759,7 +43092,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43767,7 +43100,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43775,7 +43108,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43783,7 +43116,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43791,7 +43124,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43799,7 +43132,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43807,7 +43140,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43815,7 +43148,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43823,7 +43156,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -43855,22 +43188,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -43902,267 +43235,267 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
